--- a/Rayna/2013/data/01_fmr1-WT-DataSet.xlsx
+++ b/Rayna/2013/data/01_fmr1-WT-DataSet.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/Github/qPCR-mouse/Rayna/2013/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="-80" windowWidth="32000" windowHeight="19480" activeTab="1"/>
+    <workbookView xWindow="1540" yWindow="8120" windowWidth="14400" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="fmr1_Room.txt" sheetId="1" r:id="rId1"/>
     <sheet name="WT-Room" sheetId="3" r:id="rId2"/>
     <sheet name="isolated" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -1149,17 +1154,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,36 +1659,36 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent1 - 20%" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="Accent1 - 40%" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="Accent1 - 60%" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent2 - 20%" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="Accent2 - 40%" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="Accent2 - 60%" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent3 - 20%" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="Accent3 - 40%" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="Accent3 - 60%" xfId="29" builtinId="40" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent4 - 20%" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="Accent4 - 40%" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="Accent4 - 60%" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent5 - 20%" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="Accent5 - 40%" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="Accent5 - 60%" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Accent6 - 20%" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="Accent6 - 40%" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="Accent6 - 60%" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -1704,12 +1704,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Sheet Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2004,16 +2004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG81"/>
   <sheetViews>
-    <sheetView topLeftCell="S2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <pane xSplit="17960" topLeftCell="BC1"/>
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="AM20" sqref="AM20"/>
       <selection pane="topRight" activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -2027,7 +2027,7 @@
     <col min="57" max="59" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>339</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>341</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>342</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>343</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>340</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>346</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>347</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>348</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>345</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>17.063130000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>351</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>352</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>350</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>110.00000000000001</v>
       </c>
       <c r="AY21" s="1">
-        <f t="shared" ref="AY21:AY52" si="0">D21</f>
+        <f t="shared" ref="AY21" si="0">D21</f>
         <v>19.2</v>
       </c>
       <c r="AZ21" s="1">
@@ -4821,7 +4821,7 @@
         <v>74</v>
       </c>
       <c r="BA21" s="1">
-        <f t="shared" ref="BA21:BA52" si="1">IF(AW21="untrained",0,J21)</f>
+        <f t="shared" ref="BA21" si="1">IF(AW21="untrained",0,J21)</f>
         <v>36</v>
       </c>
       <c r="BB21" s="1">
@@ -4846,7 +4846,7 @@
         <v>9.5502099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>355</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>256</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>257</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>45.73</v>
       </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>354</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>117.55999999999999</v>
       </c>
       <c r="AY27" s="1">
-        <f t="shared" ref="AY27:AY58" si="2">D27</f>
+        <f t="shared" ref="AY27" si="2">D27</f>
         <v>21.11</v>
       </c>
       <c r="AZ27" s="1">
@@ -5552,7 +5552,7 @@
         <v>62</v>
       </c>
       <c r="BA27" s="1">
-        <f t="shared" ref="BA27:BA58" si="3">IF(AW27="untrained",0,J27)</f>
+        <f t="shared" ref="BA27" si="3">IF(AW27="untrained",0,J27)</f>
         <v>35</v>
       </c>
       <c r="BB27" s="1">
@@ -5577,7 +5577,7 @@
         <v>5.4360999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>254</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>255</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>107.92999999999999</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" ref="AY33:AY75" si="4">D33</f>
+        <f t="shared" ref="AY33" si="4">D33</f>
         <v>21</v>
       </c>
       <c r="AZ33" s="1">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" ref="BA33:BA75" si="5">IF(AW33="untrained",0,J33)</f>
+        <f t="shared" ref="BA33" si="5">IF(AW33="untrained",0,J33)</f>
         <v>0</v>
       </c>
       <c r="BB33" s="1">
@@ -6308,7 +6308,7 @@
         <v>10.79302</v>
       </c>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>17.190000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>116.54</v>
       </c>
       <c r="AY39" s="1">
-        <f t="shared" ref="AY39:AY75" si="6">D39</f>
+        <f t="shared" ref="AY39" si="6">D39</f>
         <v>22.06</v>
       </c>
       <c r="AZ39" s="1">
@@ -7014,7 +7014,7 @@
         <v>119</v>
       </c>
       <c r="BA39" s="1">
-        <f t="shared" ref="BA39:BA75" si="7">IF(AW39="untrained",0,J39)</f>
+        <f t="shared" ref="BA39" si="7">IF(AW39="untrained",0,J39)</f>
         <v>61</v>
       </c>
       <c r="BB39" s="1">
@@ -7039,7 +7039,7 @@
         <v>12.88043</v>
       </c>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>260</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>261</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>262</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="45" spans="1:59">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>259</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>142.52000000000001</v>
       </c>
       <c r="AY45" s="1">
-        <f t="shared" ref="AY45:AY75" si="8">D45</f>
+        <f t="shared" ref="AY45" si="8">D45</f>
         <v>34.65</v>
       </c>
       <c r="AZ45" s="1">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="1">
-        <f t="shared" ref="BA45:BA75" si="9">IF(AW45="untrained",0,J45)</f>
+        <f t="shared" ref="BA45" si="9">IF(AW45="untrained",0,J45)</f>
         <v>0</v>
       </c>
       <c r="BB45" s="1">
@@ -7770,7 +7770,7 @@
         <v>9.2021700000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>263</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>264</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>265</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>282</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>116.25</v>
       </c>
       <c r="AY51" s="1">
-        <f t="shared" ref="AY51:AY75" si="10">D51</f>
+        <f t="shared" ref="AY51" si="10">D51</f>
         <v>24.62</v>
       </c>
       <c r="AZ51" s="1">
@@ -8476,7 +8476,7 @@
         <v>77</v>
       </c>
       <c r="BA51" s="1">
-        <f t="shared" ref="BA51:BA75" si="11">IF(AW51="untrained",0,J51)</f>
+        <f t="shared" ref="BA51" si="11">IF(AW51="untrained",0,J51)</f>
         <v>41</v>
       </c>
       <c r="BB51" s="1">
@@ -8501,7 +8501,7 @@
         <v>10.169790000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:59">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>267</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>269</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="55" spans="1:59">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>102.25999999999999</v>
       </c>
       <c r="AY57" s="1">
-        <f t="shared" ref="AY57:AY75" si="12">D57</f>
+        <f t="shared" ref="AY57" si="12">D57</f>
         <v>22.88</v>
       </c>
       <c r="AZ57" s="1">
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="BA57" s="1">
-        <f t="shared" ref="BA57:BA75" si="13">IF(AW57="untrained",0,J57)</f>
+        <f t="shared" ref="BA57" si="13">IF(AW57="untrained",0,J57)</f>
         <v>0</v>
       </c>
       <c r="BB57" s="1">
@@ -9232,7 +9232,7 @@
         <v>12.09939</v>
       </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>272</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="60" spans="1:59">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>274</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>275</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>276</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>273</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>102.53999999999999</v>
       </c>
       <c r="AY63" s="1">
-        <f t="shared" ref="AY63:AY75" si="14">D63</f>
+        <f t="shared" ref="AY63" si="14">D63</f>
         <v>17.32</v>
       </c>
       <c r="AZ63" s="1">
@@ -9938,7 +9938,7 @@
         <v>44</v>
       </c>
       <c r="BA63" s="1">
-        <f t="shared" ref="BA63:BA75" si="15">IF(AW63="untrained",0,J63)</f>
+        <f t="shared" ref="BA63" si="15">IF(AW63="untrained",0,J63)</f>
         <v>9</v>
       </c>
       <c r="BB63" s="1">
@@ -9963,7 +9963,7 @@
         <v>24.558509999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:59">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>277</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -10237,7 +10237,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="67" spans="1:59">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="68" spans="1:59">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>281</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>278</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>141.54</v>
       </c>
       <c r="AY69" s="1">
-        <f t="shared" ref="AY69:AY75" si="16">D69</f>
+        <f t="shared" ref="AY69" si="16">D69</f>
         <v>27.62</v>
       </c>
       <c r="AZ69" s="1">
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="1">
-        <f t="shared" ref="BA69:BA75" si="17">IF(AW69="untrained",0,J69)</f>
+        <f t="shared" ref="BA69" si="17">IF(AW69="untrained",0,J69)</f>
         <v>0</v>
       </c>
       <c r="BB69" s="1">
@@ -10694,7 +10694,7 @@
         <v>8.6835599999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>283</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>285</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="75" spans="1:59">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>284</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>5.5650300000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:59">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="AU77" s="1" t="s">
         <v>304</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>13.63313</v>
       </c>
     </row>
-    <row r="78" spans="1:59">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="AU78" s="1" t="s">
         <v>305</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>9.7540999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:59">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="AU79" s="1" t="s">
         <v>306</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>10.86905</v>
       </c>
     </row>
-    <row r="80" spans="1:59">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="AU80" s="1" t="s">
         <v>307</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>12.719580000000001</v>
       </c>
     </row>
-    <row r="81" spans="47:59">
+    <row r="81" spans="47:59" x14ac:dyDescent="0.2">
       <c r="AU81" s="1" t="s">
         <v>308</v>
       </c>
@@ -11526,29 +11526,23 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A87" workbookViewId="0">
       <pane xSplit="17160" topLeftCell="L1" activePane="topRight"/>
       <selection activeCell="B27" sqref="A27:XFD27"/>
       <selection pane="topRight" activeCell="S1" sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="25.5" style="4" customWidth="1"/>
@@ -11569,7 +11563,7 @@
     <col min="60" max="60" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>287</v>
       </c>
@@ -11751,7 +11745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>172</v>
       </c>
@@ -11921,7 +11915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
@@ -12061,7 +12055,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
@@ -12201,7 +12195,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>150</v>
       </c>
@@ -12341,7 +12335,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>150</v>
       </c>
@@ -12481,7 +12475,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>150</v>
       </c>
@@ -12621,7 +12615,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>150</v>
       </c>
@@ -12761,7 +12755,7 @@
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>150</v>
       </c>
@@ -12951,10 +12945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG10" s="3"/>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>150</v>
       </c>
@@ -13095,7 +13089,7 @@
       </c>
       <c r="BG11" s="3"/>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>150</v>
       </c>
@@ -13236,7 +13230,7 @@
       </c>
       <c r="BG12" s="3"/>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -13377,7 +13371,7 @@
       </c>
       <c r="BG13" s="3"/>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>150</v>
       </c>
@@ -13518,7 +13512,7 @@
       </c>
       <c r="BG14" s="3"/>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>150</v>
       </c>
@@ -13664,7 +13658,7 @@
         <v>303</v>
       </c>
       <c r="AX15" s="1" t="str">
-        <f t="shared" ref="AX15:AX46" si="0">IF(A15="Train","trained","untrained")</f>
+        <f t="shared" ref="AX15" si="0">IF(A15="Train","trained","untrained")</f>
         <v>trained</v>
       </c>
       <c r="AY15" s="1">
@@ -13708,10 +13702,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG16" s="3"/>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>150</v>
       </c>
@@ -13852,7 +13846,7 @@
       </c>
       <c r="BG17" s="3"/>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>150</v>
       </c>
@@ -13993,7 +13987,7 @@
       </c>
       <c r="BG18" s="3"/>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>150</v>
       </c>
@@ -14134,7 +14128,7 @@
       </c>
       <c r="BG19" s="3"/>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>150</v>
       </c>
@@ -14275,7 +14269,7 @@
       </c>
       <c r="BG20" s="3"/>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>150</v>
       </c>
@@ -14421,7 +14415,7 @@
         <v>303</v>
       </c>
       <c r="AX21" s="1" t="str">
-        <f t="shared" ref="AX21:AX52" si="1">IF(A21="Train","trained","untrained")</f>
+        <f t="shared" ref="AX21" si="1">IF(A21="Train","trained","untrained")</f>
         <v>trained</v>
       </c>
       <c r="AY21" s="1">
@@ -14429,7 +14423,7 @@
         <v>97.9</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" ref="AZ21:AZ52" si="2">E21</f>
+        <f t="shared" ref="AZ21" si="2">E21</f>
         <v>15.43</v>
       </c>
       <c r="BA21" s="1">
@@ -14437,7 +14431,7 @@
         <v>6</v>
       </c>
       <c r="BB21" s="1">
-        <f t="shared" ref="BB21:BB52" si="3">IF(AX21="untrained",0,K21)</f>
+        <f t="shared" ref="BB21" si="3">IF(AX21="untrained",0,K21)</f>
         <v>1</v>
       </c>
       <c r="BC21" s="1">
@@ -14465,10 +14459,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG22" s="3"/>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>157</v>
       </c>
@@ -14609,7 +14603,7 @@
       </c>
       <c r="BG23" s="3"/>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>157</v>
       </c>
@@ -14750,7 +14744,7 @@
       </c>
       <c r="BG24" s="3"/>
     </row>
-    <row r="25" spans="1:62">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>157</v>
       </c>
@@ -14891,7 +14885,7 @@
       </c>
       <c r="BG25" s="3"/>
     </row>
-    <row r="26" spans="1:62">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -15032,7 +15026,7 @@
       </c>
       <c r="BG26" s="3"/>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>157</v>
       </c>
@@ -15178,7 +15172,7 @@
         <v>303</v>
       </c>
       <c r="AX27" s="1" t="str">
-        <f t="shared" ref="AX27:AX58" si="4">IF(A27="Train","trained","untrained")</f>
+        <f t="shared" ref="AX27" si="4">IF(A27="Train","trained","untrained")</f>
         <v>untrained</v>
       </c>
       <c r="AY27" s="1">
@@ -15186,7 +15180,7 @@
         <v>109.33</v>
       </c>
       <c r="AZ27" s="1">
-        <f t="shared" ref="AZ27:AZ58" si="5">E27</f>
+        <f t="shared" ref="AZ27" si="5">E27</f>
         <v>24</v>
       </c>
       <c r="BA27" s="1">
@@ -15194,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="BB27" s="1">
-        <f t="shared" ref="BB27:BB58" si="6">IF(AX27="untrained",0,K27)</f>
+        <f t="shared" ref="BB27" si="6">IF(AX27="untrained",0,K27)</f>
         <v>0</v>
       </c>
       <c r="BC27" s="1">
@@ -15222,10 +15216,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG28" s="3"/>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>150</v>
       </c>
@@ -15366,7 +15360,7 @@
       </c>
       <c r="BG29" s="3"/>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>150</v>
       </c>
@@ -15507,7 +15501,7 @@
       </c>
       <c r="BG30" s="3"/>
     </row>
-    <row r="31" spans="1:62">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>150</v>
       </c>
@@ -15648,7 +15642,7 @@
       </c>
       <c r="BG31" s="3"/>
     </row>
-    <row r="32" spans="1:62">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>150</v>
       </c>
@@ -15789,7 +15783,7 @@
       </c>
       <c r="BG32" s="3"/>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>150</v>
       </c>
@@ -15935,7 +15929,7 @@
         <v>303</v>
       </c>
       <c r="AX33" s="1" t="str">
-        <f t="shared" ref="AX33:AX64" si="7">IF(A33="Train","trained","untrained")</f>
+        <f t="shared" ref="AX33" si="7">IF(A33="Train","trained","untrained")</f>
         <v>trained</v>
       </c>
       <c r="AY33" s="1">
@@ -15943,7 +15937,7 @@
         <v>97.36</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" ref="AZ33:AZ75" si="8">E33</f>
+        <f t="shared" ref="AZ33" si="8">E33</f>
         <v>16.3</v>
       </c>
       <c r="BA33" s="1">
@@ -15951,7 +15945,7 @@
         <v>21</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" ref="BB33:BB75" si="9">IF(AX33="untrained",0,K33)</f>
+        <f t="shared" ref="BB33" si="9">IF(AX33="untrained",0,K33)</f>
         <v>3</v>
       </c>
       <c r="BC33" s="1">
@@ -15979,10 +15973,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG34" s="3"/>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>157</v>
       </c>
@@ -16123,7 +16117,7 @@
       </c>
       <c r="BG35" s="3"/>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>157</v>
       </c>
@@ -16264,7 +16258,7 @@
       </c>
       <c r="BG36" s="3"/>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>157</v>
       </c>
@@ -16405,7 +16399,7 @@
       </c>
       <c r="BG37" s="3"/>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>157</v>
       </c>
@@ -16546,7 +16540,7 @@
       </c>
       <c r="BG38" s="3"/>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>157</v>
       </c>
@@ -16692,7 +16686,7 @@
         <v>303</v>
       </c>
       <c r="AX39" s="1" t="str">
-        <f t="shared" ref="AX39:AX70" si="10">IF(A39="Train","trained","untrained")</f>
+        <f t="shared" ref="AX39" si="10">IF(A39="Train","trained","untrained")</f>
         <v>untrained</v>
       </c>
       <c r="AY39" s="1">
@@ -16700,7 +16694,7 @@
         <v>113.41000000000001</v>
       </c>
       <c r="AZ39" s="1">
-        <f t="shared" ref="AZ39:AZ75" si="11">E39</f>
+        <f t="shared" ref="AZ39" si="11">E39</f>
         <v>17.010000000000002</v>
       </c>
       <c r="BA39" s="1">
@@ -16708,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="1">
-        <f t="shared" ref="BB39:BB75" si="12">IF(AX39="untrained",0,K39)</f>
+        <f t="shared" ref="BB39" si="12">IF(AX39="untrained",0,K39)</f>
         <v>0</v>
       </c>
       <c r="BC39" s="1">
@@ -16736,10 +16730,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG40" s="3"/>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>150</v>
       </c>
@@ -16880,7 +16874,7 @@
       </c>
       <c r="BG41" s="3"/>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>150</v>
       </c>
@@ -17021,7 +17015,7 @@
       </c>
       <c r="BG42" s="3"/>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>150</v>
       </c>
@@ -17162,7 +17156,7 @@
       </c>
       <c r="BG43" s="3"/>
     </row>
-    <row r="44" spans="1:62">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>150</v>
       </c>
@@ -17303,7 +17297,7 @@
       </c>
       <c r="BG44" s="3"/>
     </row>
-    <row r="45" spans="1:62">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>150</v>
       </c>
@@ -17449,7 +17443,7 @@
         <v>303</v>
       </c>
       <c r="AX45" s="1" t="str">
-        <f t="shared" ref="AX45:AX76" si="13">IF(A45="Train","trained","untrained")</f>
+        <f t="shared" ref="AX45" si="13">IF(A45="Train","trained","untrained")</f>
         <v>trained</v>
       </c>
       <c r="AY45" s="1">
@@ -17457,7 +17451,7 @@
         <v>95.01</v>
       </c>
       <c r="AZ45" s="1">
-        <f t="shared" ref="AZ45:AZ75" si="14">E45</f>
+        <f t="shared" ref="AZ45" si="14">E45</f>
         <v>20.079999999999998</v>
       </c>
       <c r="BA45" s="1">
@@ -17465,7 +17459,7 @@
         <v>10</v>
       </c>
       <c r="BB45" s="1">
-        <f t="shared" ref="BB45:BB75" si="15">IF(AX45="untrained",0,K45)</f>
+        <f t="shared" ref="BB45" si="15">IF(AX45="untrained",0,K45)</f>
         <v>5</v>
       </c>
       <c r="BC45" s="1">
@@ -17493,10 +17487,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:62">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG46" s="3"/>
     </row>
-    <row r="47" spans="1:62">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
@@ -17637,7 +17631,7 @@
       </c>
       <c r="BG47" s="3"/>
     </row>
-    <row r="48" spans="1:62">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>157</v>
       </c>
@@ -17778,7 +17772,7 @@
       </c>
       <c r="BG48" s="3"/>
     </row>
-    <row r="49" spans="1:62">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>157</v>
       </c>
@@ -17919,7 +17913,7 @@
       </c>
       <c r="BG49" s="3"/>
     </row>
-    <row r="50" spans="1:62">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>157</v>
       </c>
@@ -18060,7 +18054,7 @@
       </c>
       <c r="BG50" s="3"/>
     </row>
-    <row r="51" spans="1:62">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>157</v>
       </c>
@@ -18214,7 +18208,7 @@
         <v>81.61</v>
       </c>
       <c r="AZ51" s="1">
-        <f t="shared" ref="AZ51:AZ75" si="17">E51</f>
+        <f t="shared" ref="AZ51" si="17">E51</f>
         <v>18.5</v>
       </c>
       <c r="BA51" s="1">
@@ -18222,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="1">
-        <f t="shared" ref="BB51:BB75" si="18">IF(AX51="untrained",0,K51)</f>
+        <f t="shared" ref="BB51" si="18">IF(AX51="untrained",0,K51)</f>
         <v>0</v>
       </c>
       <c r="BC51" s="1">
@@ -18250,10 +18244,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:62">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG52" s="3"/>
     </row>
-    <row r="53" spans="1:62">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>150</v>
       </c>
@@ -18394,7 +18388,7 @@
       </c>
       <c r="BG53" s="3"/>
     </row>
-    <row r="54" spans="1:62">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>150</v>
       </c>
@@ -18535,7 +18529,7 @@
       </c>
       <c r="BG54" s="3"/>
     </row>
-    <row r="55" spans="1:62">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>150</v>
       </c>
@@ -18676,7 +18670,7 @@
       </c>
       <c r="BG55" s="3"/>
     </row>
-    <row r="56" spans="1:62">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
@@ -18817,7 +18811,7 @@
       </c>
       <c r="BG56" s="3"/>
     </row>
-    <row r="57" spans="1:62">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>150</v>
       </c>
@@ -18971,7 +18965,7 @@
         <v>88.81</v>
       </c>
       <c r="AZ57" s="1">
-        <f t="shared" ref="AZ57:AZ75" si="20">E57</f>
+        <f t="shared" ref="AZ57" si="20">E57</f>
         <v>16.18</v>
       </c>
       <c r="BA57" s="1">
@@ -18979,7 +18973,7 @@
         <v>9</v>
       </c>
       <c r="BB57" s="1">
-        <f t="shared" ref="BB57:BB75" si="21">IF(AX57="untrained",0,K57)</f>
+        <f t="shared" ref="BB57" si="21">IF(AX57="untrained",0,K57)</f>
         <v>2</v>
       </c>
       <c r="BC57" s="1">
@@ -19007,10 +19001,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:62">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG58" s="3"/>
     </row>
-    <row r="59" spans="1:62">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>157</v>
       </c>
@@ -19151,7 +19145,7 @@
       </c>
       <c r="BG59" s="3"/>
     </row>
-    <row r="60" spans="1:62">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>157</v>
       </c>
@@ -19292,7 +19286,7 @@
       </c>
       <c r="BG60" s="3"/>
     </row>
-    <row r="61" spans="1:62">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>157</v>
       </c>
@@ -19433,7 +19427,7 @@
       </c>
       <c r="BG61" s="3"/>
     </row>
-    <row r="62" spans="1:62">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>157</v>
       </c>
@@ -19574,7 +19568,7 @@
       </c>
       <c r="BG62" s="3"/>
     </row>
-    <row r="63" spans="1:62">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>157</v>
       </c>
@@ -19728,7 +19722,7 @@
         <v>103.35</v>
       </c>
       <c r="AZ63" s="1">
-        <f t="shared" ref="AZ63:AZ75" si="23">E63</f>
+        <f t="shared" ref="AZ63" si="23">E63</f>
         <v>22.9</v>
       </c>
       <c r="BA63" s="1">
@@ -19736,7 +19730,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="1">
-        <f t="shared" ref="BB63:BB75" si="24">IF(AX63="untrained",0,K63)</f>
+        <f t="shared" ref="BB63" si="24">IF(AX63="untrained",0,K63)</f>
         <v>0</v>
       </c>
       <c r="BC63" s="1">
@@ -19764,10 +19758,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:62">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG64" s="3"/>
     </row>
-    <row r="65" spans="1:62">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>150</v>
       </c>
@@ -19908,7 +19902,7 @@
       </c>
       <c r="BG65" s="3"/>
     </row>
-    <row r="66" spans="1:62">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>150</v>
       </c>
@@ -20049,7 +20043,7 @@
       </c>
       <c r="BG66" s="3"/>
     </row>
-    <row r="67" spans="1:62">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
@@ -20190,7 +20184,7 @@
       </c>
       <c r="BG67" s="3"/>
     </row>
-    <row r="68" spans="1:62">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>150</v>
       </c>
@@ -20331,7 +20325,7 @@
       </c>
       <c r="BG68" s="3"/>
     </row>
-    <row r="69" spans="1:62">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>150</v>
       </c>
@@ -20485,7 +20479,7 @@
         <v>104.74</v>
       </c>
       <c r="AZ69" s="1">
-        <f t="shared" ref="AZ69:AZ75" si="26">E69</f>
+        <f t="shared" ref="AZ69" si="26">E69</f>
         <v>18.78</v>
       </c>
       <c r="BA69" s="1">
@@ -20493,7 +20487,7 @@
         <v>26</v>
       </c>
       <c r="BB69" s="1">
-        <f t="shared" ref="BB69:BB75" si="27">IF(AX69="untrained",0,K69)</f>
+        <f t="shared" ref="BB69" si="27">IF(AX69="untrained",0,K69)</f>
         <v>10</v>
       </c>
       <c r="BC69" s="1">
@@ -20521,10 +20515,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:62">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG70" s="3"/>
     </row>
-    <row r="71" spans="1:62">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>157</v>
       </c>
@@ -20665,7 +20659,7 @@
       </c>
       <c r="BG71" s="3"/>
     </row>
-    <row r="72" spans="1:62">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>157</v>
       </c>
@@ -20806,7 +20800,7 @@
       </c>
       <c r="BG72" s="3"/>
     </row>
-    <row r="73" spans="1:62">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>157</v>
       </c>
@@ -20947,7 +20941,7 @@
       </c>
       <c r="BG73" s="3"/>
     </row>
-    <row r="74" spans="1:62">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>157</v>
       </c>
@@ -21088,7 +21082,7 @@
       </c>
       <c r="BG74" s="3"/>
     </row>
-    <row r="75" spans="1:62">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>157</v>
       </c>
@@ -21278,10 +21272,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:62">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG76" s="3"/>
     </row>
-    <row r="77" spans="1:62">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>150</v>
       </c>
@@ -21422,7 +21416,7 @@
       </c>
       <c r="BG77" s="3"/>
     </row>
-    <row r="78" spans="1:62">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>150</v>
       </c>
@@ -21563,7 +21557,7 @@
       </c>
       <c r="BG78" s="3"/>
     </row>
-    <row r="79" spans="1:62">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>150</v>
       </c>
@@ -21704,7 +21698,7 @@
       </c>
       <c r="BG79" s="3"/>
     </row>
-    <row r="80" spans="1:62">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>150</v>
       </c>
@@ -21845,7 +21839,7 @@
       </c>
       <c r="BG80" s="3"/>
     </row>
-    <row r="81" spans="1:62">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>150</v>
       </c>
@@ -22035,10 +22029,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:62">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG82" s="3"/>
     </row>
-    <row r="83" spans="1:62">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>157</v>
       </c>
@@ -22179,7 +22173,7 @@
       </c>
       <c r="BG83" s="3"/>
     </row>
-    <row r="84" spans="1:62">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>157</v>
       </c>
@@ -22320,7 +22314,7 @@
       </c>
       <c r="BG84" s="3"/>
     </row>
-    <row r="85" spans="1:62">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>157</v>
       </c>
@@ -22461,7 +22455,7 @@
       </c>
       <c r="BG85" s="3"/>
     </row>
-    <row r="86" spans="1:62">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>157</v>
       </c>
@@ -22602,7 +22596,7 @@
       </c>
       <c r="BG86" s="3"/>
     </row>
-    <row r="87" spans="1:62">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>157</v>
       </c>
@@ -22748,7 +22742,7 @@
         <v>27</v>
       </c>
       <c r="AX87" s="1" t="str">
-        <f t="shared" ref="AX87:AX117" si="39">IF(A87="Train","trained","untrained")</f>
+        <f t="shared" ref="AX87" si="39">IF(A87="Train","trained","untrained")</f>
         <v>untrained</v>
       </c>
       <c r="AY87" s="1">
@@ -22756,7 +22750,7 @@
         <v>94.72999999999999</v>
       </c>
       <c r="AZ87" s="1">
-        <f t="shared" ref="AZ87:AZ117" si="41">E87</f>
+        <f t="shared" ref="AZ87" si="41">E87</f>
         <v>15.82</v>
       </c>
       <c r="BA87" s="1">
@@ -22764,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="BB87" s="1">
-        <f t="shared" ref="BB87:BB117" si="43">IF(AX87="untrained",0,K87)</f>
+        <f t="shared" ref="BB87" si="43">IF(AX87="untrained",0,K87)</f>
         <v>0</v>
       </c>
       <c r="BC87" s="1">
@@ -22772,11 +22766,11 @@
         <v>53</v>
       </c>
       <c r="BD87" s="1">
-        <f t="shared" ref="BD87:BD117" si="45">G87</f>
+        <f t="shared" ref="BD87" si="45">G87</f>
         <v>3.23</v>
       </c>
       <c r="BE87" s="1">
-        <f t="shared" ref="BE87:BE117" si="46">S87</f>
+        <f t="shared" ref="BE87" si="46">S87</f>
         <v>19.7</v>
       </c>
       <c r="BF87" s="1">
@@ -22792,10 +22786,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:62">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG88" s="3"/>
     </row>
-    <row r="89" spans="1:62">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>150</v>
       </c>
@@ -22936,7 +22930,7 @@
       </c>
       <c r="BG89" s="3"/>
     </row>
-    <row r="90" spans="1:62">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>150</v>
       </c>
@@ -23077,7 +23071,7 @@
       </c>
       <c r="BG90" s="3"/>
     </row>
-    <row r="91" spans="1:62">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>150</v>
       </c>
@@ -23218,7 +23212,7 @@
       </c>
       <c r="BG91" s="3"/>
     </row>
-    <row r="92" spans="1:62">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>150</v>
       </c>
@@ -23359,7 +23353,7 @@
       </c>
       <c r="BG92" s="3"/>
     </row>
-    <row r="93" spans="1:62">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>150</v>
       </c>
@@ -23505,7 +23499,7 @@
         <v>27</v>
       </c>
       <c r="AX93" s="1" t="str">
-        <f t="shared" ref="AX93:AX117" si="47">IF(A93="Train","trained","untrained")</f>
+        <f t="shared" ref="AX93" si="47">IF(A93="Train","trained","untrained")</f>
         <v>trained</v>
       </c>
       <c r="AY93" s="1">
@@ -23513,7 +23507,7 @@
         <v>135</v>
       </c>
       <c r="AZ93" s="1">
-        <f t="shared" ref="AZ93:AZ117" si="49">E93</f>
+        <f t="shared" ref="AZ93" si="49">E93</f>
         <v>19.16</v>
       </c>
       <c r="BA93" s="1">
@@ -23521,7 +23515,7 @@
         <v>25</v>
       </c>
       <c r="BB93" s="1">
-        <f t="shared" ref="BB93:BB117" si="51">IF(AX93="untrained",0,K93)</f>
+        <f t="shared" ref="BB93" si="51">IF(AX93="untrained",0,K93)</f>
         <v>1</v>
       </c>
       <c r="BC93" s="1">
@@ -23529,11 +23523,11 @@
         <v>25</v>
       </c>
       <c r="BD93" s="1">
-        <f t="shared" ref="BD93:BD117" si="53">G93</f>
+        <f t="shared" ref="BD93" si="53">G93</f>
         <v>347.53</v>
       </c>
       <c r="BE93" s="1">
-        <f t="shared" ref="BE93:BE117" si="54">S93</f>
+        <f t="shared" ref="BE93" si="54">S93</f>
         <v>599.97</v>
       </c>
       <c r="BF93" s="1">
@@ -23549,10 +23543,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:62">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.2">
       <c r="BG94" s="3"/>
     </row>
-    <row r="95" spans="1:62">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -23693,7 +23687,7 @@
       </c>
       <c r="BG95" s="3"/>
     </row>
-    <row r="96" spans="1:62">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>157</v>
       </c>
@@ -23834,7 +23828,7 @@
       </c>
       <c r="BG96" s="3"/>
     </row>
-    <row r="97" spans="1:62">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>157</v>
       </c>
@@ -23975,7 +23969,7 @@
       </c>
       <c r="BG97" s="3"/>
     </row>
-    <row r="98" spans="1:62">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>157</v>
       </c>
@@ -24116,7 +24110,7 @@
       </c>
       <c r="BG98" s="3"/>
     </row>
-    <row r="99" spans="1:62">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>157</v>
       </c>
@@ -24262,7 +24256,7 @@
         <v>27</v>
       </c>
       <c r="AX99" s="1" t="str">
-        <f t="shared" ref="AX99:AX117" si="55">IF(A99="Train","trained","untrained")</f>
+        <f t="shared" ref="AX99" si="55">IF(A99="Train","trained","untrained")</f>
         <v>untrained</v>
       </c>
       <c r="AY99" s="1">
@@ -24270,7 +24264,7 @@
         <v>84.19</v>
       </c>
       <c r="AZ99" s="1">
-        <f t="shared" ref="AZ99:AZ117" si="57">E99</f>
+        <f t="shared" ref="AZ99" si="57">E99</f>
         <v>16.190000000000001</v>
       </c>
       <c r="BA99" s="1">
@@ -24278,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="BB99" s="1">
-        <f t="shared" ref="BB99:BB117" si="59">IF(AX99="untrained",0,K99)</f>
+        <f t="shared" ref="BB99" si="59">IF(AX99="untrained",0,K99)</f>
         <v>0</v>
       </c>
       <c r="BC99" s="1">
@@ -24286,11 +24280,11 @@
         <v>74</v>
       </c>
       <c r="BD99" s="1">
-        <f t="shared" ref="BD99:BD117" si="61">G99</f>
+        <f t="shared" ref="BD99" si="61">G99</f>
         <v>3.53</v>
       </c>
       <c r="BE99" s="1">
-        <f t="shared" ref="BE99:BE117" si="62">S99</f>
+        <f t="shared" ref="BE99" si="62">S99</f>
         <v>63.73</v>
       </c>
       <c r="BF99" s="1">
@@ -24306,7 +24300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:62">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>150</v>
       </c>
@@ -24446,7 +24440,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="102" spans="1:62">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>150</v>
       </c>
@@ -24586,7 +24580,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="103" spans="1:62">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>150</v>
       </c>
@@ -24726,7 +24720,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="104" spans="1:62">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -24866,7 +24860,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:62">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>150</v>
       </c>
@@ -25012,7 +25006,7 @@
         <v>27</v>
       </c>
       <c r="AX105" s="1" t="str">
-        <f t="shared" ref="AX105:AX117" si="63">IF(A105="Train","trained","untrained")</f>
+        <f t="shared" ref="AX105" si="63">IF(A105="Train","trained","untrained")</f>
         <v>trained</v>
       </c>
       <c r="AY105" s="1">
@@ -25020,7 +25014,7 @@
         <v>97.839999999999989</v>
       </c>
       <c r="AZ105" s="1">
-        <f t="shared" ref="AZ105:AZ117" si="65">E105</f>
+        <f t="shared" ref="AZ105" si="65">E105</f>
         <v>17.22</v>
       </c>
       <c r="BA105" s="1">
@@ -25028,7 +25022,7 @@
         <v>12</v>
       </c>
       <c r="BB105" s="1">
-        <f t="shared" ref="BB105:BB117" si="67">IF(AX105="untrained",0,K105)</f>
+        <f t="shared" ref="BB105" si="67">IF(AX105="untrained",0,K105)</f>
         <v>3</v>
       </c>
       <c r="BC105" s="1">
@@ -25036,15 +25030,15 @@
         <v>11</v>
       </c>
       <c r="BD105" s="1">
-        <f t="shared" ref="BD105:BD117" si="69">G105</f>
+        <f t="shared" ref="BD105" si="69">G105</f>
         <v>17.43</v>
       </c>
       <c r="BE105" s="1">
-        <f t="shared" ref="BE105:BE117" si="70">S105</f>
+        <f t="shared" ref="BE105" si="70">S105</f>
         <v>153.13</v>
       </c>
     </row>
-    <row r="107" spans="1:62">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>157</v>
       </c>
@@ -25184,7 +25178,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="108" spans="1:62">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>157</v>
       </c>
@@ -25324,7 +25318,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="109" spans="1:62">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>157</v>
       </c>
@@ -25464,7 +25458,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="110" spans="1:62">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>157</v>
       </c>
@@ -25604,7 +25598,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="111" spans="1:62">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
@@ -25750,7 +25744,7 @@
         <v>27</v>
       </c>
       <c r="AX111" s="1" t="str">
-        <f t="shared" ref="AX111:AX117" si="71">IF(A111="Train","trained","untrained")</f>
+        <f t="shared" ref="AX111" si="71">IF(A111="Train","trained","untrained")</f>
         <v>untrained</v>
       </c>
       <c r="AY111" s="1">
@@ -25758,7 +25752,7 @@
         <v>102.47999999999999</v>
       </c>
       <c r="AZ111" s="1">
-        <f t="shared" ref="AZ111:AZ117" si="73">E111</f>
+        <f t="shared" ref="AZ111" si="73">E111</f>
         <v>21.19</v>
       </c>
       <c r="BA111" s="1">
@@ -25766,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="BB111" s="1">
-        <f t="shared" ref="BB111:BB117" si="75">IF(AX111="untrained",0,K111)</f>
+        <f t="shared" ref="BB111" si="75">IF(AX111="untrained",0,K111)</f>
         <v>0</v>
       </c>
       <c r="BC111" s="1">
@@ -25774,15 +25768,15 @@
         <v>81</v>
       </c>
       <c r="BD111" s="1">
-        <f t="shared" ref="BD111:BD117" si="77">G111</f>
+        <f t="shared" ref="BD111" si="77">G111</f>
         <v>19.27</v>
       </c>
       <c r="BE111" s="1">
-        <f t="shared" ref="BE111:BE117" si="78">S111</f>
+        <f t="shared" ref="BE111" si="78">S111</f>
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:57">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>150</v>
       </c>
@@ -25922,7 +25916,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="114" spans="1:57">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>150</v>
       </c>
@@ -26062,7 +26056,7 @@
         <v>13.17</v>
       </c>
     </row>
-    <row r="115" spans="1:57">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>150</v>
       </c>
@@ -26202,7 +26196,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="116" spans="1:57">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>150</v>
       </c>
@@ -26342,7 +26336,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="117" spans="1:57">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>150</v>
       </c>
@@ -26521,29 +26515,23 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>252</v>
       </c>
@@ -26551,7 +26539,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -26559,7 +26547,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>250</v>
       </c>
@@ -26567,7 +26555,7 @@
         <v>27.46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -26575,7 +26563,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>248</v>
       </c>
@@ -26583,7 +26571,7 @@
         <v>84.17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -26591,7 +26579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -26599,7 +26587,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>245</v>
       </c>
@@ -26607,7 +26595,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>244</v>
       </c>
@@ -26615,7 +26603,7 @@
         <v>66.59</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -26623,7 +26611,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>242</v>
       </c>
@@ -26631,7 +26619,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -26639,7 +26627,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -26647,7 +26635,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -26655,7 +26643,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -26663,7 +26651,7 @@
         <v>78.83</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -26671,7 +26659,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>236</v>
       </c>
@@ -26679,7 +26667,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>235</v>
       </c>
@@ -26687,7 +26675,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -26695,7 +26683,7 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -26703,7 +26691,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>232</v>
       </c>
@@ -26711,7 +26699,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -26719,7 +26707,7 @@
         <v>11.78</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -26727,7 +26715,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>229</v>
       </c>
@@ -26735,7 +26723,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>228</v>
       </c>
@@ -26743,7 +26731,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>227</v>
       </c>
@@ -26751,7 +26739,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -26759,7 +26747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>225</v>
       </c>
@@ -26767,7 +26755,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -26775,7 +26763,7 @@
         <v>46.47</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>223</v>
       </c>
@@ -26783,7 +26771,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -26791,7 +26779,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -26799,7 +26787,7 @@
         <v>21.15</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>220</v>
       </c>
@@ -26807,7 +26795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>219</v>
       </c>
@@ -26815,7 +26803,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>218</v>
       </c>
@@ -26823,7 +26811,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -26831,7 +26819,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -26839,7 +26827,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>215</v>
       </c>
@@ -26847,7 +26835,7 @@
         <v>134.88</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>214</v>
       </c>
@@ -26855,7 +26843,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -26863,7 +26851,7 @@
         <v>15.31</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -26871,7 +26859,7 @@
         <v>22.05</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>211</v>
       </c>
@@ -26879,7 +26867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>210</v>
       </c>
@@ -26887,7 +26875,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -26895,7 +26883,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>208</v>
       </c>
@@ -26903,7 +26891,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>207</v>
       </c>
@@ -26911,7 +26899,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -26919,7 +26907,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -26927,7 +26915,7 @@
         <v>38.57</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -26935,7 +26923,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -26943,7 +26931,7 @@
         <v>246.88</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>202</v>
       </c>
@@ -26951,7 +26939,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -26959,7 +26947,7 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -26967,7 +26955,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -26975,7 +26963,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -26983,7 +26971,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -26991,7 +26979,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -26999,7 +26987,7 @@
         <v>9.07</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -27007,7 +26995,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -27015,7 +27003,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -27024,13 +27012,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>